--- a/仕様書/射撃フェーズの仕様書.xlsx
+++ b/仕様書/射撃フェーズの仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA7459D-2D84-4F22-BFAD-02CD8B2DE9E3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFABB016-3402-46DA-8D40-78DC8A14C5B0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>射撃フェーズ</t>
     <rPh sb="0" eb="2">
       <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初にロボット全体を見せる</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,98 +118,6 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>一枚目</t>
-    <rPh sb="0" eb="3">
-      <t>イチマイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二枚目</t>
-    <rPh sb="0" eb="3">
-      <t>ニマイメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レントゲン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>写したものを重ねていく</t>
-    <rPh sb="0" eb="1">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後の一枚で撮ったものの合計の確率を表示</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチマイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弱点の部位は写せたもののみ表示</t>
-    <rPh sb="0" eb="2">
-      <t>ジャクテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外したらゲームオーバー</t>
-    <rPh sb="0" eb="1">
-      <t>ハズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後の一枚＋正面から見た画像</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチマイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショウメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
@@ -261,16 +182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>141513</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>110218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>202747</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -285,8 +206,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7625442" y="110218"/>
-          <a:ext cx="1436914" cy="2296886"/>
+          <a:off x="5200650" y="219075"/>
+          <a:ext cx="1447800" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -321,15 +242,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -381,16 +302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>236765</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -405,8 +326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15884979" y="518431"/>
-          <a:ext cx="742950" cy="638175"/>
+          <a:off x="12458701" y="123825"/>
+          <a:ext cx="323850" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -442,32 +363,24 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部位名</a:t>
+            <a:t>頭</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確率</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -529,16 +442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>566058</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>83004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>213633</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -553,8 +466,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11451772" y="1307647"/>
-          <a:ext cx="899432" cy="1600200"/>
+          <a:off x="9277350" y="457200"/>
+          <a:ext cx="904875" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -590,15 +503,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>658957</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>106507</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>49357</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>192232</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -613,8 +526,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1351684" y="591416"/>
-          <a:ext cx="1468582" cy="2267816"/>
+          <a:off x="1362075" y="123825"/>
+          <a:ext cx="1447800" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -986,16 +899,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>627783</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>107249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>166501</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>233547</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1010,8 +923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5390283" y="1086963"/>
-          <a:ext cx="899432" cy="1595870"/>
+          <a:off x="3571875" y="485775"/>
+          <a:ext cx="904875" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -1046,23 +959,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>458931</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>55048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>634463</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>102674</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6973C7-2243-415A-BB87-30635002D2E2}"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0999EC36-8AF4-4E1F-BDDA-1EE4E7A6B382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,8 +983,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8078931" y="1024866"/>
-          <a:ext cx="868259" cy="1502353"/>
+          <a:off x="4524375" y="619124"/>
+          <a:ext cx="866775" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1106,23 +1019,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>169349</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>337953</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57768</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4268A9-932F-4569-8D26-1572D7EE20E6}"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6973C7-2243-415A-BB87-30635002D2E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,8 +1043,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9694349" y="3439142"/>
-          <a:ext cx="848961" cy="1517197"/>
+          <a:off x="5467350" y="619124"/>
+          <a:ext cx="866775" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1166,16 +1079,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>475057</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133190</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>113108</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>31216</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4268A9-932F-4569-8D26-1572D7EE20E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="628649"/>
+          <a:ext cx="866775" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1190,8 +1163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8095057" y="2800190"/>
-          <a:ext cx="1023506" cy="382935"/>
+          <a:off x="4533901" y="1724025"/>
+          <a:ext cx="1009650" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,15 +1209,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1299,15 +1272,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1362,15 +1335,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>8</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1424,15 +1397,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1487,15 +1460,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1550,16 +1523,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>521154</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>425904</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106136</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1574,8 +1547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14128297" y="1932215"/>
-          <a:ext cx="585107" cy="378278"/>
+          <a:off x="1552576" y="1428750"/>
+          <a:ext cx="590550" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,16 +1593,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>236765</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1647,8 +1620,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14859000" y="837519"/>
-          <a:ext cx="1025979" cy="270783"/>
+          <a:off x="11544300" y="309563"/>
+          <a:ext cx="914401" cy="295274"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1669,423 +1642,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>211715</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0F32F1D-F8E6-4BFD-AEEF-D762E7A9DA6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8697687" y="1115786"/>
-          <a:ext cx="827313" cy="320572"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>459086</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>640061</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114705</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="四角形: 角を丸くする 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FA7E64-2C3E-4A9D-A6B4-AE40EA597ED4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8079086" y="1279353"/>
-          <a:ext cx="873702" cy="1502352"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>669130</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>169747</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>62502</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="四角形: 角を丸くする 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0999EC36-8AF4-4E1F-BDDA-1EE4E7A6B382}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10874487" y="3443877"/>
-          <a:ext cx="861331" cy="1517196"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349EC3F9-3D12-4A0A-8B33-EFB9CA0F651D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8899071" y="435428"/>
-          <a:ext cx="911679" cy="598715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>部位名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確率のＵＩ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>671852</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>3991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>172468</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>51616</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="四角形: 角を丸くする 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C4C378-8814-4D08-AB87-FC0AFB2DDCFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12237923" y="3432991"/>
-          <a:ext cx="861331" cy="1517196"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
-            <a:ln w="0"/>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000"/>
-            </a:gradFill>
-            <a:effectLst>
-              <a:reflection blurRad="6350" stA="53000" endA="300" endPos="35500" dir="5400000" sy="-90000" algn="bl" rotWithShape="0"/>
-            </a:effectLst>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>204107</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="テキスト ボックス 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45DE057E-8E7C-4D0F-BD72-F8930DB363EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13797643" y="394607"/>
-          <a:ext cx="1374321" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>時間表示（３０）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2354,81 +1910,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:V21"/>
+  <dimension ref="A18:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="5" spans="11:22">
-      <c r="O5" t="s">
-        <v>11</v>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="11:22">
-      <c r="O14" t="s">
-        <v>9</v>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>1</v>
       </c>
-      <c r="Q14" t="s">
-        <v>10</v>
+      <c r="H19" t="s">
+        <v>2</v>
       </c>
-      <c r="V14" t="s">
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="11:22">
-      <c r="V15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="11:22">
-      <c r="K16" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="O20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
-      <c r="K17" t="s">
-        <v>12</v>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>9</v>
       </c>
-      <c r="V17" t="s">
-        <v>15</v>
+      <c r="O21" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
         <v>8</v>
-      </c>
-      <c r="K20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
